--- a/stock/操作日志.xlsx
+++ b/stock/操作日志.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,7 +48,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>临时转入</t>
+    <t>借款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余资金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款利息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,20 +419,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,13 +448,25 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43097</v>
       </c>
@@ -447,13 +477,62 @@
         <v>22328</v>
       </c>
       <c r="D2">
+        <f>B2-C2</f>
         <v>38480</v>
       </c>
       <c r="E2">
+        <f>B2-F2</f>
+        <v>22808</v>
+      </c>
+      <c r="F2">
         <v>38000</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2">
+        <v>480</v>
+      </c>
+      <c r="H2">
+        <f>D2-F2-G2</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>H2*F2/(F2+G2)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43103</v>
+      </c>
+      <c r="B3">
+        <v>59911.81</v>
+      </c>
+      <c r="C3">
+        <v>21416</v>
+      </c>
+      <c r="D3">
+        <f>B3-C3</f>
+        <v>38495.81</v>
+      </c>
+      <c r="E3">
+        <f>B3-F3</f>
+        <v>21911.809999999998</v>
+      </c>
+      <c r="F3">
+        <v>38000</v>
+      </c>
+      <c r="G3">
+        <v>480</v>
+      </c>
+      <c r="H3">
+        <f>D3-F3-G3</f>
+        <v>15.809999999997672</v>
+      </c>
+      <c r="I3">
+        <f>H3*F3/(F3+G3)</f>
+        <v>15.612785862783564</v>
       </c>
     </row>
   </sheetData>
